--- a/correcao_ppe/Resultado.xlsx
+++ b/correcao_ppe/Resultado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,12 +451,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>00603713620208219000</t>
+          <t>00364536620218219000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0060371-36.2020.8.21.9000</t>
+          <t>0036453-66.2021.8.21.9000</t>
         </is>
       </c>
     </row>
@@ -466,12 +466,282 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>00146900920218219000</t>
+          <t>00201382620228219000</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0014690-09.2021.8.21.9000</t>
+          <t>0020138-26.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>00201417820228219000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0020141-78.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>02076061920128210001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0207606-19.2012.8.21.0001</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>00395337920158210001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0039533-79.2015.8.21.0001</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>01271452620138210001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0127145-26.2013.8.21.0001</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>03740784420118210001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0374078-44.2011.8.21.0001</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>00576721120178210001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0057672-11.2017.8.21.0001</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>01480132520138210001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0148013-25.2013.8.21.0001</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>35368519520098216001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3536851-95.2009.8.21.6001</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>34568416420098216001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3456841-64.2009.8.21.6001</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>08374316920108216001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0837431-69.2010.8.21.6001</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>90468919720198210001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>9046891-97.2019.8.21.0001</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>90834124120198210001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>9083412-41.2019.8.21.0001</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>90096043220218210001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>9009604-32.2021.8.21.0001</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>90240030320208210001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>9024003-03.2020.8.21.0001</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>90455096920198210001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>9045509-69.2019.8.21.0001</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>00065216920188210001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0006521-69.2018.8.21.0001</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>00291616620188210001</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0029161-66.2018.8.21.0001</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>00730841120198210001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0073084-11.2019.8.21.0001</t>
         </is>
       </c>
     </row>

--- a/correcao_ppe/Resultado.xlsx
+++ b/correcao_ppe/Resultado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,12 +451,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>00364536620218219000</t>
+          <t>90004647320188210002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0036453-66.2021.8.21.9000</t>
+          <t>9000464-73.2018.8.21.0002</t>
         </is>
       </c>
     </row>
@@ -466,12 +466,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>00201382620228219000</t>
+          <t>90006501120188210095</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0020138-26.2022.8.21.9000</t>
+          <t>9000650-11.2018.8.21.0095</t>
         </is>
       </c>
     </row>
@@ -481,12 +481,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>00201417820228219000</t>
+          <t>90030537520188210022</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0020141-78.2022.8.21.9000</t>
+          <t>9003053-75.2018.8.21.0022</t>
         </is>
       </c>
     </row>
@@ -496,12 +496,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>02076061920128210001</t>
+          <t>90073115020178210027</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0207606-19.2012.8.21.0001</t>
+          <t>9007311-50.2017.8.21.0027</t>
         </is>
       </c>
     </row>
@@ -511,12 +511,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>00395337920158210001</t>
+          <t>90004741420218210067</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0039533-79.2015.8.21.0001</t>
+          <t>9000474-14.2021.8.21.0067</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>01271452620138210001</t>
+          <t>90006303620208210067</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0127145-26.2013.8.21.0001</t>
+          <t>9000630-36.2020.8.21.0067</t>
         </is>
       </c>
     </row>
@@ -541,12 +541,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>03740784420118210001</t>
+          <t>90000584620218210067</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0374078-44.2011.8.21.0001</t>
+          <t>9000058-46.2021.8.21.0067</t>
         </is>
       </c>
     </row>
@@ -556,12 +556,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>00576721120178210001</t>
+          <t>90012828720198210067</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0057672-11.2017.8.21.0001</t>
+          <t>9001282-87.2019.8.21.0067</t>
         </is>
       </c>
     </row>
@@ -571,12 +571,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>01480132520138210001</t>
+          <t>90007476120198210067</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0148013-25.2013.8.21.0001</t>
+          <t>9000747-61.2019.8.21.0067</t>
         </is>
       </c>
     </row>
@@ -586,12 +586,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>35368519520098216001</t>
+          <t>90000714520218210067</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3536851-95.2009.8.21.6001</t>
+          <t>9000071-45.2021.8.21.0067</t>
         </is>
       </c>
     </row>
@@ -601,12 +601,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>34568416420098216001</t>
+          <t>90000316320218210067</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3456841-64.2009.8.21.6001</t>
+          <t>9000031-63.2021.8.21.0067</t>
         </is>
       </c>
     </row>
@@ -616,12 +616,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>08374316920108216001</t>
+          <t>90000264120218210067</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0837431-69.2010.8.21.6001</t>
+          <t>9000026-41.2021.8.21.0067</t>
         </is>
       </c>
     </row>
@@ -631,12 +631,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>90468919720198210001</t>
+          <t>90006537920208210067</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>9046891-97.2019.8.21.0001</t>
+          <t>9000653-79.2020.8.21.0067</t>
         </is>
       </c>
     </row>
@@ -646,12 +646,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>90834124120198210001</t>
+          <t>90001364020218210067</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>9083412-41.2019.8.21.0001</t>
+          <t>9000136-40.2021.8.21.0067</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>90096043220218210001</t>
+          <t>90001598320218210067</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>9009604-32.2021.8.21.0001</t>
+          <t>9000159-83.2021.8.21.0067</t>
         </is>
       </c>
     </row>
@@ -676,12 +676,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>90240030320208210001</t>
+          <t>90005861720208210067</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>9024003-03.2020.8.21.0001</t>
+          <t>9000586-17.2020.8.21.0067</t>
         </is>
       </c>
     </row>
@@ -691,12 +691,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>90455096920198210001</t>
+          <t>90002593820218210067</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>9045509-69.2019.8.21.0001</t>
+          <t>9000259-38.2021.8.21.0067</t>
         </is>
       </c>
     </row>
@@ -706,12 +706,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>00065216920188210001</t>
+          <t>90002922820218210067</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0006521-69.2018.8.21.0001</t>
+          <t>9000292-28.2021.8.21.0067</t>
         </is>
       </c>
     </row>
@@ -721,12 +721,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>00291616620188210001</t>
+          <t>90001822920218210067</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0029161-66.2018.8.21.0001</t>
+          <t>9000182-29.2021.8.21.0067</t>
         </is>
       </c>
     </row>
@@ -736,12 +736,1812 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>00730841120198210001</t>
+          <t>90001858120218210067</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0073084-11.2019.8.21.0001</t>
+          <t>9000185-81.2021.8.21.0067</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>90006470920198210067</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>9000647-09.2019.8.21.0067</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>90006961620208210067</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>9000696-16.2020.8.21.0067</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>90005784020208210067</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>9000578-40.2020.8.21.0067</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>00138703920228217000</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0013870-39.2022.8.21.7000</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>00068212920208219000</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0006821-29.2020.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>00352085420208219000</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0035208-54.2020.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>00072020320218219000</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0007202-03.2021.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>00001623320228219000</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0000162-33.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>00040129520228219000</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0004012-95.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>00087944820228219000</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0008794-48.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>00158807020228219000</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0015880-70.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>00183844920228219000</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0018384-49.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>00184728720228219000</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0018472-87.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>00196255820228219000</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0019625-58.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>00196272820228219000</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0019627-28.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>00266765720218219000</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0026676-57.2021.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>00298983320218219000</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0029898-33.2021.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>00042960620228219000</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0004296-06.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>00149687320228219000</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0014968-73.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>00151141720228219000</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0015114-17.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>00151202420228219000</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0015120-24.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>00151887120228219000</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0015188-71.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>00176778120228219000</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0017677-81.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>00176786620228219000</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0017678-66.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>00176803620228219000</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0017680-36.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>00176812120228219000</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0017681-21.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>00176820620228219000</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0017682-06.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>00176838820228219000</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0017683-88.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>00176864320228219000</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0017686-43.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>00176899520228219000</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0017689-95.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>00176908020228219000</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0017690-80.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>00177132620228219000</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0017713-26.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>00177289220228219000</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>0017728-92.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>00177505320228219000</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>0017750-53.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>00177522320228219000</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0017752-23.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>00177583020228219000</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0017758-30.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>00177635220228219000</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>0017763-52.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>00177748120228219000</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0017774-81.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>00177756620228219000</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0017775-66.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>00177782120228219000</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0017778-21.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>00177834320228219000</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0017783-43.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>00177842820228219000</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0017784-28.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>00177851320228219000</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>0017785-13.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>00177886520228219000</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0017788-65.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>00177903520228219000</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>0017790-35.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>00177981220228219000</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0017798-12.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>00178024920228219000</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0017802-49.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>00178068620228219000</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0017806-86.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>00178085620228219000</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>0017808-56.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>00178102620228219000</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0017810-26.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>00178146320228219000</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0017814-63.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>00178163320228219000</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0017816-33.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>00178171820228219000</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0017817-18.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>00178198520228219000</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>0017819-85.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>00178215520228219000</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>0017821-55.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>00178241020228219000</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0017824-10.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>00178276220228219000</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>0017827-62.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>00178336920228219000</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>0017833-69.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>00178353920228219000</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0017835-39.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>00178389120228219000</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>0017838-91.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>00178458320228219000</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>0017845-83.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>00145252520228219000</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>0014525-25.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>00147253220228219000</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>0014725-32.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>00147305420228219000</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>0014730-54.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>00147426820228219000</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>0014742-68.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>00147764320228219000</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>0014776-43.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>00147946420228219000</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>0014794-64.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>00148587420228219000</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>0014858-74.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>00148769520228219000</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>0014876-95.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>00174733720228219000</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>0017473-37.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>00174742220228219000</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>0017474-22.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>00174777420228219000</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>0017477-74.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>00174802920228219000</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>0017480-29.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>00174829620228219000</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>0017482-96.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>00174846620228219000</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>0017484-66.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>00174968020228219000</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>0017496-80.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>00175028720228219000</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>0017502-87.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>00175045720228219000</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>0017504-57.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>00175062720228219000</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>0017506-27.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>00175071220228219000</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>0017507-12.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>00175089420228219000</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>0017508-94.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>00175261820228219000</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>0017526-18.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>00175314020228219000</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>0017531-40.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>00189639420228219000</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>0018963-94.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>00189933220228219000</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>0018993-32.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>00189976920228219000</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>0018997-69.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>00190236720228219000</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>0019023-67.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>00190358120228219000</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>0019035-81.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>00333940720208219000</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>0033394-07.2020.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>00422952720218219000</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>0042295-27.2021.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>00055415220228219000</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>0005541-52.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>00070866020228219000</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>0007086-60.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>00072719820228219000</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>0007271-98.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>00078297020228219000</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>0007829-70.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>00084064820228219000</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>0008406-48.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>00087710520228219000</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>0008771-05.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>00087867120228219000</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>0008786-71.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>00088845620228219000</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>0008884-56.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>00090733420228219000</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>0009073-34.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>00093375120228219000</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>0009337-51.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>00098329520228219000</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>0009832-95.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>00098363520228219000</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>0009836-35.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>00099861620228219000</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>0009986-16.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>00115130320228219000</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>0011513-03.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>00127472020228219000</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>0012747-20.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>00127767020228219000</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>0012776-70.2022.8.21.9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>00110808220228217000</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>0011080-82.2022.8.21.7000</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>10636012820058210001</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>1063601-28.2005.8.21.0001</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>10879916220058210001</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>1087991-62.2005.8.21.0001</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>90280026120208210001</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>9028002-61.2020.8.21.0001</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>90455989220198210001</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>9045598-92.2019.8.21.0001</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>90447544520198210001</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>9044754-45.2019.8.21.0001</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>90763799720198210001</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>9076379-97.2019.8.21.0001</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>15353512020088210001</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>1535351-20.2008.8.21.0001</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>04158083020148210001</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>0415808-30.2014.8.21.0001</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>30156710920078210001</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>3015671-09.2007.8.21.0001</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>00015455020128213001</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>0001545-50.2012.8.21.3001</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>00060638320128213001</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>0006063-83.2012.8.21.3001</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>00240989120128213001</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>0024098-91.2012.8.21.3001</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>90424212320198210001</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>9042421-23.2019.8.21.0001</t>
         </is>
       </c>
     </row>
